--- a/Dataset_02.xlsx
+++ b/Dataset_02.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EMORY-SON\NRSG736_previousStatsSPSScourse\Fall2017\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyGithub\N736Testdataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,12 +107,30 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -127,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -138,6 +156,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -489,7 +519,7 @@
       <c r="B2" s="2">
         <v>45</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>68</v>
       </c>
       <c r="D2" s="2">
@@ -510,6 +540,9 @@
       <c r="I2">
         <v>4</v>
       </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
       <c r="K2">
         <v>5</v>
       </c>
@@ -554,7 +587,7 @@
       <c r="K3">
         <v>2</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="7">
         <v>40</v>
       </c>
       <c r="M3">
@@ -590,7 +623,7 @@
         <v>3</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -631,9 +664,9 @@
         <v>4</v>
       </c>
       <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="K5" s="9">
         <v>9</v>
       </c>
       <c r="L5">
@@ -672,7 +705,7 @@
         <v>5</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -712,9 +745,7 @@
       <c r="I7">
         <v>2</v>
       </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
+      <c r="J7" s="6"/>
       <c r="K7">
         <v>5</v>
       </c>
@@ -732,7 +763,7 @@
       <c r="B8" s="2">
         <v>50</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>60</v>
       </c>
       <c r="D8" s="2">
@@ -753,13 +784,16 @@
       <c r="I8">
         <v>3</v>
       </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8">
         <v>3</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="9">
         <v>9</v>
       </c>
     </row>
@@ -792,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>4</v>
@@ -823,13 +857,13 @@
       <c r="F10" s="2">
         <v>2</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="2"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="4"/>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -870,7 +904,7 @@
         <v>4</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>5</v>
@@ -907,15 +941,16 @@
       <c r="H12" s="2">
         <v>1</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="7">
         <v>11</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
+      <c r="L12" s="6"/>
       <c r="M12">
         <v>5</v>
       </c>
@@ -949,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K13">
         <v>5</v>
@@ -965,7 +1000,7 @@
       <c r="A14" s="2">
         <v>21</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="8">
         <v>99</v>
       </c>
       <c r="C14" s="2">
@@ -990,7 +1025,7 @@
         <v>2</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K14">
         <v>4</v>
@@ -1031,7 +1066,7 @@
         <v>2</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K15">
         <v>5</v>
@@ -1039,7 +1074,7 @@
       <c r="L15">
         <v>4</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="9">
         <v>9</v>
       </c>
     </row>
@@ -1071,8 +1106,8 @@
       <c r="I16">
         <v>5</v>
       </c>
-      <c r="J16">
-        <v>5</v>
+      <c r="J16" s="9">
+        <v>9</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1113,7 +1148,7 @@
         <v>5</v>
       </c>
       <c r="J17">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>4</v>
@@ -1154,7 +1189,7 @@
         <v>4</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1179,7 +1214,7 @@
       <c r="D19" s="2">
         <v>215</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="4">
         <v>2.6</v>
       </c>
       <c r="F19" s="2">
@@ -1195,8 +1230,11 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
@@ -1227,8 +1265,11 @@
         <v>5</v>
       </c>
       <c r="J20">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
@@ -1259,13 +1300,11 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="J22">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dataset_02.xlsx
+++ b/Dataset_02.xlsx
@@ -107,30 +107,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -145,29 +127,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,25 +421,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:D21"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.9296875" customWidth="1"/>
-    <col min="10" max="10" width="6.9296875" customWidth="1"/>
-    <col min="11" max="11" width="8.796875" customWidth="1"/>
-    <col min="12" max="12" width="7.53125" customWidth="1"/>
-    <col min="13" max="13" width="7.86328125" customWidth="1"/>
+    <col min="1" max="1" width="8.265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.9296875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="6.9296875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.796875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="7.53125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7.86328125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="29" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
@@ -513,798 +483,787 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
         <v>45</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>68</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>145</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>5.6</v>
       </c>
-      <c r="F2" s="2">
-        <v>2</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-      <c r="L2">
-        <v>4</v>
-      </c>
-      <c r="M2">
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2">
+        <v>5</v>
+      </c>
+      <c r="L2" s="2">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
         <v>50</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>167</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>166</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>5.4</v>
       </c>
-      <c r="F3" s="2">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="2">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>4</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3" s="7">
+      <c r="H3" s="3">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>3</v>
+      </c>
+      <c r="J3" s="2">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2</v>
+      </c>
+      <c r="L3" s="2">
         <v>40</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
         <v>35</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>143</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>135</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>5.6</v>
       </c>
-      <c r="F4" s="2">
-        <v>2</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="2">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-      <c r="M4">
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>3</v>
+      </c>
+      <c r="M4" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
         <v>44</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>216</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>201</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>5.6</v>
       </c>
-      <c r="F5" s="2">
-        <v>2</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5" s="9">
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>4</v>
+      </c>
+      <c r="J5" s="2">
+        <v>3</v>
+      </c>
+      <c r="K5" s="2">
         <v>9</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
         <v>32</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>243</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>223</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>6</v>
       </c>
-      <c r="F6" s="2">
-        <v>2</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>2</v>
+      </c>
+      <c r="M6" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>48</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>165</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>145</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>5.2</v>
       </c>
-      <c r="F7" s="2">
-        <v>2</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="2">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
+      <c r="H7" s="3">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2</v>
+      </c>
+      <c r="K7" s="2">
+        <v>5</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>50</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>60</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>132</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>5.3</v>
       </c>
-      <c r="F8" s="2">
-        <v>2</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="M8" s="9">
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>3</v>
+      </c>
+      <c r="J8" s="2">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2</v>
+      </c>
+      <c r="L8" s="2">
+        <v>3</v>
+      </c>
+      <c r="M8" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>51</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>110</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>108</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F9" s="2">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="3">
+        <v>3</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="2">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>4</v>
-      </c>
-      <c r="L9">
-        <v>3</v>
-      </c>
-      <c r="M9">
+      <c r="H9" s="3">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>4</v>
+      </c>
+      <c r="L9" s="2">
+        <v>3</v>
+      </c>
+      <c r="M9" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>12</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>46</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>167</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>158</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>5.5</v>
       </c>
-      <c r="F10" s="2">
-        <v>2</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="4"/>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>4</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>5</v>
-      </c>
-      <c r="M10">
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>4</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>5</v>
+      </c>
+      <c r="M10" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>14</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>35</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>190</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>200</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>5.8</v>
       </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>4</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>5</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>4</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>5</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>16</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>36</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>230</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>210</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>6.2</v>
       </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
         <v>11</v>
       </c>
-      <c r="J12">
-        <v>4</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12">
+      <c r="J12" s="2">
+        <v>4</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2</v>
+      </c>
+      <c r="M12" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>19</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>40</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>200</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>195</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>6.1</v>
       </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="2">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>5</v>
-      </c>
-      <c r="K13">
-        <v>5</v>
-      </c>
-      <c r="L13">
-        <v>4</v>
-      </c>
-      <c r="M13">
+      <c r="H13" s="3">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>5</v>
+      </c>
+      <c r="K13" s="2">
+        <v>5</v>
+      </c>
+      <c r="L13" s="2">
+        <v>4</v>
+      </c>
+      <c r="M13" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>21</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="3">
         <v>99</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>180</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>185</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>5.9</v>
       </c>
-      <c r="F14" s="2">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>3</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="2">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="J14">
-        <v>2</v>
-      </c>
-      <c r="K14">
-        <v>4</v>
-      </c>
-      <c r="L14">
-        <v>2</v>
-      </c>
-      <c r="M14">
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2">
+        <v>4</v>
+      </c>
+      <c r="L14" s="2">
+        <v>2</v>
+      </c>
+      <c r="M14" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>22</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>52</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>240</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>220</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>6.5</v>
       </c>
-      <c r="F15" s="2">
-        <v>2</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="J15">
-        <v>5</v>
-      </c>
-      <c r="K15">
-        <v>5</v>
-      </c>
-      <c r="L15">
-        <v>4</v>
-      </c>
-      <c r="M15" s="9">
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>5</v>
+      </c>
+      <c r="K15" s="2">
+        <v>5</v>
+      </c>
+      <c r="L15" s="2">
+        <v>4</v>
+      </c>
+      <c r="M15" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>23</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>24</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>250</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>240</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>6.4</v>
       </c>
-      <c r="F16" s="2">
-        <v>2</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="2">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>5</v>
-      </c>
-      <c r="J16" s="9">
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>5</v>
+      </c>
+      <c r="J16" s="2">
         <v>9</v>
       </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>2</v>
-      </c>
-      <c r="M16">
+      <c r="K16" s="2">
+        <v>3</v>
+      </c>
+      <c r="L16" s="2">
+        <v>2</v>
+      </c>
+      <c r="M16" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>24</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>35</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>175</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>174</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <v>5.8</v>
       </c>
-      <c r="F17" s="2">
-        <v>2</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="2">
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <v>5</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>4</v>
-      </c>
-      <c r="L17">
-        <v>4</v>
-      </c>
-      <c r="M17">
+      <c r="H17" s="3">
+        <v>2</v>
+      </c>
+      <c r="I17" s="2">
+        <v>5</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <v>4</v>
+      </c>
+      <c r="L17" s="2">
+        <v>4</v>
+      </c>
+      <c r="M17" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>27</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>51</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>220</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>221</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>6.3</v>
       </c>
-      <c r="F18" s="2">
-        <v>2</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="2">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>4</v>
-      </c>
-      <c r="J18">
-        <v>4</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>2</v>
-      </c>
-      <c r="M18">
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>4</v>
+      </c>
+      <c r="J18" s="2">
+        <v>4</v>
+      </c>
+      <c r="K18" s="2">
+        <v>3</v>
+      </c>
+      <c r="L18" s="2">
+        <v>2</v>
+      </c>
+      <c r="M18" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>28</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>43</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>230</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
         <v>215</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>2.6</v>
       </c>
-      <c r="F19" s="2">
-        <v>2</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>30</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>36</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3">
         <v>190</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
         <v>180</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="3">
         <v>5.7</v>
       </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="2">
-        <v>2</v>
-      </c>
-      <c r="I20">
-        <v>5</v>
-      </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
+      <c r="H20" s="3">
+        <v>2</v>
+      </c>
+      <c r="I20" s="2">
+        <v>5</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>32</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>44</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="3">
         <v>260</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
         <v>240</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="3">
         <v>6.4</v>
       </c>
-      <c r="F21" s="2">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="F21" s="3">
+        <v>3</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="2">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>4</v>
-      </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
